--- a/data/database/templates.xlsx
+++ b/data/database/templates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,42 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>config_path</t>
+          <t>pipeline_id</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>config_json</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>updated_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Informe Ensayo SIMCE Lenguaje</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Plantilla estándar para informes de SIMCE Lenguaje 2° Medio.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Reporte</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>esquema_informe_lenguaje.json</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2026-01-29 23:22:21</t>
         </is>
       </c>
     </row>
